--- a/archivo_entrada.xlsx
+++ b/archivo_entrada.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="54">
   <si>
     <t>InvoiceDate</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Address2</t>
-  </si>
-  <si>
     <t>LineItemNumber</t>
   </si>
   <si>
@@ -166,6 +163,24 @@
   </si>
   <si>
     <t>LE_Country</t>
+  </si>
+  <si>
+    <t>Name_Vendor</t>
+  </si>
+  <si>
+    <t>Address_vendor</t>
+  </si>
+  <si>
+    <t>Address2_vendor</t>
+  </si>
+  <si>
+    <t>City1_vendor</t>
+  </si>
+  <si>
+    <t>Country_vendor</t>
+  </si>
+  <si>
+    <t>kevin</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1089,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -1110,121 +1125,121 @@
         <v>11</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B8" ca="1" si="0">TODAY()</f>
-        <v>43434</v>
+        <v>43437</v>
       </c>
       <c r="C2" s="2">
         <v>3988</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
       </c>
       <c r="G2">
         <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
       </c>
       <c r="M2">
         <v>45202</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" s="2">
         <v>144.47999999999999</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X2" s="2">
         <v>20.170000000000002</v>
@@ -1247,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>43384</v>
@@ -1261,61 +1276,61 @@
         <v>3988</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
       </c>
       <c r="G3">
         <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
       </c>
       <c r="M3">
         <v>45202</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
         <v>28</v>
       </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>29</v>
       </c>
-      <c r="T3" t="s">
-        <v>30</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2">
         <v>222.64</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X3" s="2">
         <v>19.170000000000002</v>
@@ -1338,76 +1353,76 @@
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43437</v>
       </c>
       <c r="C4" s="2">
         <v>3988</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
       </c>
       <c r="G4">
         <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
       </c>
       <c r="M4">
         <v>45202</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>29</v>
       </c>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V4" s="2">
         <v>335.12</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X4" s="2">
         <v>23.12</v>
@@ -1430,76 +1445,76 @@
         <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43437</v>
       </c>
       <c r="C5" s="2">
         <v>3988</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
       </c>
       <c r="G5">
         <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
       </c>
       <c r="M5">
         <v>45202</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
         <v>28</v>
       </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>29</v>
       </c>
-      <c r="T5" t="s">
-        <v>30</v>
-      </c>
       <c r="U5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V5" s="2">
         <v>277.63</v>
       </c>
       <c r="W5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X5" s="2">
         <v>27.16</v>
@@ -1522,76 +1537,76 @@
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43437</v>
       </c>
       <c r="C6" s="2">
         <v>3988</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
       <c r="G6">
         <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
       </c>
       <c r="M6">
         <v>45202</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
         <v>28</v>
       </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>29</v>
       </c>
-      <c r="T6" t="s">
-        <v>30</v>
-      </c>
       <c r="U6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V6" s="2">
         <v>226.53</v>
       </c>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2">
         <v>17.93</v>
@@ -1614,76 +1629,76 @@
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43437</v>
       </c>
       <c r="C7" s="2">
         <v>3988</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
       </c>
       <c r="G7">
         <v>170</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
       </c>
       <c r="M7">
         <v>45202</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
         <v>28</v>
       </c>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>29</v>
       </c>
-      <c r="T7" t="s">
-        <v>30</v>
-      </c>
       <c r="U7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V7" s="2">
         <v>112.47</v>
       </c>
       <c r="W7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" s="2">
         <v>17.82</v>
@@ -1706,76 +1721,76 @@
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43437</v>
       </c>
       <c r="C8" s="2">
         <v>3988</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
       </c>
       <c r="G8">
         <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
       </c>
       <c r="M8">
         <v>45202</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" t="s">
         <v>28</v>
       </c>
-      <c r="R8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>29</v>
       </c>
-      <c r="T8" t="s">
-        <v>30</v>
-      </c>
       <c r="U8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V8" s="2">
         <v>110.26</v>
       </c>
       <c r="W8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2">
         <v>23.39</v>
